--- a/data/trans_orig/IP07C32_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C32_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9022DA4A-0DDC-49A1-BC8E-1CB466CE38EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0355DFA-21FD-4DF1-B21F-4AD9C3C19CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DD0CFDE9-0ADB-4B2B-9E90-A6C419B818F8}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AA3EB6DF-2AAA-46F1-8FD1-A1A6505DCF18}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,148 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Sí, en mi colegio/instituto</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Sí, fuera de mi colegio/instituto</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>92,3%</t>
@@ -98,126 +236,117 @@
     <t>96,34%</t>
   </si>
   <si>
-    <t>Sí, en mi colegio/instituto</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>Sí, fuera de mi colegio/instituto</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
     <t>98,44%</t>
   </si>
   <si>
@@ -242,133 +371,52 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>94,85%</t>
@@ -396,54 +444,6 @@
   </si>
   <si>
     <t>95,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6837D67B-94E4-47AF-9573-F217CE09C671}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BE29C0-1E6D-41DD-81A1-77D8B15D5E43}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -953,10 +953,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>94789</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -968,136 +968,136 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>53309</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>185</v>
-      </c>
-      <c r="N4" s="7">
-        <v>148099</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>3928</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2603</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>6530</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>3981</v>
+        <v>2324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>758</v>
+        <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>4739</v>
+        <v>3918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1106,204 +1106,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>56670</v>
+        <v>1593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M7" s="7">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>159368</v>
+        <v>3918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>39759</v>
+        <v>2206</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>31425</v>
+        <v>474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>71183</v>
+        <v>2680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2206</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>2680</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>39759</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>31425</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>71183</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1318,13 +1318,13 @@
         <v>41965</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -1333,13 +1333,13 @@
         <v>31899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -1348,168 +1348,168 @@
         <v>73863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>55461</v>
+        <v>3928</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2603</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="7">
-        <v>71</v>
-      </c>
-      <c r="I12" s="7">
-        <v>53541</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M12" s="7">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>109003</v>
+        <v>6530</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>3981</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>758</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4739</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2153</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2153</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D14" s="7">
-        <v>881</v>
+        <v>94789</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>53309</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="N14" s="7">
-        <v>881</v>
+        <v>148099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,108 +1518,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D15" s="7">
-        <v>56342</v>
+        <v>102698</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I15" s="7">
-        <v>55694</v>
+        <v>56670</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="N15" s="7">
-        <v>112036</v>
+        <v>159368</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2324</v>
+        <v>2729</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1593</v>
+        <v>2260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>3918</v>
+        <v>4989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1628,94 +1628,94 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>10321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>10321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>60306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="7">
+        <v>59</v>
+      </c>
+      <c r="I18" s="7">
+        <v>42928</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>103234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,180 +1724,180 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7">
-        <v>2324</v>
+        <v>63035</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I19" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M19" s="7">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="N19" s="7">
-        <v>3918</v>
+        <v>118544</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>60306</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>42928</v>
+        <v>2153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>103234</v>
+        <v>2153</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>2729</v>
+        <v>881</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>2260</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>100</v>
       </c>
       <c r="M21" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>4989</v>
+        <v>881</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>101</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>55461</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7">
-        <v>10321</v>
+        <v>53541</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>105</v>
@@ -1909,10 +1909,10 @@
         <v>107</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="N22" s="7">
-        <v>10321</v>
+        <v>109003</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>108</v>
@@ -1930,49 +1930,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D23" s="7">
-        <v>63035</v>
+        <v>56342</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I23" s="7">
-        <v>55509</v>
+        <v>55694</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M23" s="7">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="N23" s="7">
-        <v>118544</v>
+        <v>112036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>252641</v>
+        <v>8863</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>111</v>
@@ -1998,112 +1998,112 @@
         <v>113</v>
       </c>
       <c r="H24" s="7">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>182796</v>
+        <v>7489</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>114</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>23</v>
+      </c>
+      <c r="N24" s="7">
+        <v>16352</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M24" s="7">
-        <v>544</v>
-      </c>
-      <c r="N24" s="7">
-        <v>435436</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>8863</v>
+        <v>4862</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7">
+        <v>11079</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="7">
-        <v>11</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7489</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>7</v>
+      </c>
+      <c r="N25" s="7">
+        <v>15940</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="7">
-        <v>23</v>
-      </c>
-      <c r="N25" s="7">
-        <v>16352</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>292</v>
       </c>
       <c r="D26" s="7">
-        <v>4862</v>
+        <v>252641</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="7">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="I26" s="7">
-        <v>11079</v>
+        <v>182796</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>130</v>
@@ -2115,10 +2115,10 @@
         <v>132</v>
       </c>
       <c r="M26" s="7">
-        <v>7</v>
+        <v>544</v>
       </c>
       <c r="N26" s="7">
-        <v>15940</v>
+        <v>435436</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>133</v>
@@ -2142,13 +2142,13 @@
         <v>266365</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H27" s="7">
         <v>268</v>
@@ -2157,13 +2157,13 @@
         <v>201364</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M27" s="7">
         <v>574</v>
@@ -2172,13 +2172,13 @@
         <v>467729</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C32_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C32_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0355DFA-21FD-4DF1-B21F-4AD9C3C19CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19702C33-8C4E-4FBF-8615-25E7760AA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AA3EB6DF-2AAA-46F1-8FD1-A1A6505DCF18}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8EA55E7-6F32-4212-999B-DBB63DA1D40C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
   <si>
     <t>Menores según frecuencia de haber sufrido cyberbulling en 2023 (Tasa respuesta: 29,9%)</t>
   </si>
@@ -68,259 +68,307 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>Sí, fuera de mi colegio/instituto</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>Sí, en mi colegio/instituto</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Sí, fuera de mi colegio/instituto</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>8,36%</t>
+    <t>8,51%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>8,0%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>11,18%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
     <t>2,7%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -329,121 +377,85 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -454,7 +466,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -550,39 +562,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -634,7 +646,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -745,13 +757,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -760,6 +765,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -824,19 +836,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BE29C0-1E6D-41DD-81A1-77D8B15D5E43}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FD30E5-9497-46D5-AF79-DBF760F621C3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -953,10 +985,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2324</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -968,34 +1000,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3918</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1010,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1025,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1040,64 +1072,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2324</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>3918</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1112,13 +1144,13 @@
         <v>2324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1127,13 +1159,13 @@
         <v>1593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1142,13 +1174,13 @@
         <v>3918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1159,10 +1191,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>2206</v>
+        <v>39759</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>24</v>
@@ -1174,25 +1206,25 @@
         <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>474</v>
+        <v>31425</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>2680</v>
+        <v>71183</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -1216,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>32</v>
@@ -1231,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>33</v>
@@ -1246,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>34</v>
@@ -1258,13 +1290,13 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>39759</v>
+        <v>2206</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>35</v>
@@ -1276,25 +1308,25 @@
         <v>37</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>31425</v>
+        <v>474</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M10" s="7">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>71183</v>
+        <v>2680</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
@@ -1318,13 +1350,13 @@
         <v>41965</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -1333,13 +1365,13 @@
         <v>31899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -1348,13 +1380,13 @@
         <v>73863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1365,49 +1397,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D12" s="7">
-        <v>3928</v>
+        <v>94789</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="I12" s="7">
-        <v>2603</v>
+        <v>53309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="N12" s="7">
-        <v>6530</v>
+        <v>148099</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1422,13 +1454,13 @@
         <v>3981</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1437,13 +1469,13 @@
         <v>758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1452,64 +1484,64 @@
         <v>4739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>94789</v>
+        <v>3928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>53309</v>
+        <v>2603</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>148099</v>
+        <v>6530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,13 +1556,13 @@
         <v>102698</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>78</v>
@@ -1539,13 +1571,13 @@
         <v>56670</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>197</v>
@@ -1554,66 +1586,66 @@
         <v>159368</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>2729</v>
+        <v>60306</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>2260</v>
+        <v>42928</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="N16" s="7">
-        <v>4989</v>
+        <v>103234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1628,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1643,13 +1675,13 @@
         <v>10321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1658,64 +1690,64 @@
         <v>10321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>60306</v>
+        <v>2729</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>42928</v>
+        <v>2260</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>103234</v>
+        <v>4989</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,13 +1762,13 @@
         <v>63035</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -1745,13 +1777,13 @@
         <v>55509</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -1760,66 +1792,66 @@
         <v>118544</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>55461</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="I20" s="7">
-        <v>2153</v>
+        <v>53541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="N20" s="7">
-        <v>2153</v>
+        <v>109003</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,13 +1866,13 @@
         <v>881</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1849,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1864,64 +1896,64 @@
         <v>881</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7">
-        <v>69</v>
-      </c>
-      <c r="D22" s="7">
-        <v>55461</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>53541</v>
+        <v>2153</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>109003</v>
+        <v>2153</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1968,13 @@
         <v>56342</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
@@ -1951,13 +1983,13 @@
         <v>55694</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
         <v>144</v>
@@ -1966,13 +1998,13 @@
         <v>112036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,49 +2015,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="D24" s="7">
-        <v>8863</v>
+        <v>252641</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="I24" s="7">
-        <v>7489</v>
+        <v>182796</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
-        <v>23</v>
+        <v>544</v>
       </c>
       <c r="N24" s="7">
-        <v>16352</v>
+        <v>435436</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2072,13 @@
         <v>4862</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2055,13 +2087,13 @@
         <v>11079</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2070,64 +2102,64 @@
         <v>15940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7">
-        <v>252641</v>
+        <v>8863</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>182796</v>
+        <v>7489</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
-        <v>544</v>
+        <v>23</v>
       </c>
       <c r="N26" s="7">
-        <v>435436</v>
+        <v>16352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2174,13 @@
         <v>266365</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
         <v>268</v>
@@ -2157,13 +2189,13 @@
         <v>201364</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
         <v>574</v>
@@ -2172,13 +2204,18 @@
         <v>467729</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C32_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C32_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19702C33-8C4E-4FBF-8615-25E7760AA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEA3DB8-BBDB-4F7B-AD0F-021ABFDAFB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8EA55E7-6F32-4212-999B-DBB63DA1D40C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46A90DFB-12D3-414E-906A-5D05E9E10317}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="139">
   <si>
     <t>Menores según frecuencia de haber sufrido cyberbulling en 2023 (Tasa respuesta: 29,9%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -107,31 +107,31 @@
     <t>Sí, en mi colegio/instituto</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>91,49%</t>
+    <t>92,74%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -146,127 +146,127 @@
     <t>5,26%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>8,51%</t>
+    <t>7,26%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>17,56%</t>
+    <t>18,29%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>7,46%</t>
+    <t>6,86%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>77,34%</t>
   </si>
   <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>2,95%</t>
@@ -275,37 +275,37 @@
     <t>18,59%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>4,21%</t>
@@ -314,7 +314,7 @@
     <t>1,41%</t>
   </si>
   <si>
-    <t>8,54%</t>
+    <t>8,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -323,22 +323,22 @@
     <t>98,44%</t>
   </si>
   <si>
-    <t>89,31%</t>
+    <t>90,96%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>93,6%</t>
+    <t>93,69%</t>
   </si>
   <si>
     <t>99,27%</t>
@@ -347,7 +347,7 @@
     <t>1,56%</t>
   </si>
   <si>
-    <t>10,69%</t>
+    <t>9,04%</t>
   </si>
   <si>
     <t>2,55%</t>
@@ -356,103 +356,100 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
     <t>2,7%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>86,54%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>8,32%</t>
+    <t>8,62%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>6,45%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -867,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FD30E5-9497-46D5-AF79-DBF760F621C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9DDA91-BCF7-4741-94E4-E46F7D5ACB26}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1902,7 +1899,7 @@
         <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,7 +1920,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1932,13 +1929,13 @@
         <v>2153</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -1947,13 +1944,13 @@
         <v>2153</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2018,13 @@
         <v>252641</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>252</v>
@@ -2036,13 +2033,13 @@
         <v>182796</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>544</v>
@@ -2051,13 +2048,13 @@
         <v>435436</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,10 +2138,10 @@
         <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -2153,13 +2150,13 @@
         <v>16352</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,7 +2212,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C32_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C32_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEA3DB8-BBDB-4F7B-AD0F-021ABFDAFB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3ABDB95-1D6C-4A33-8C15-78E7F57645CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46A90DFB-12D3-414E-906A-5D05E9E10317}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{65851C62-BB66-41D9-92B1-A3B18F4CB4E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="139">
-  <si>
-    <t>Menores según frecuencia de haber sufrido cyberbulling en 2023 (Tasa respuesta: 29,9%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
+  <si>
+    <t>Menores según si han sufrido cyberbulling en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,391 +65,571 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>Sí, fuera de mi colegio/instituto</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Sí, en mi colegio/instituto</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -864,8 +1044,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9DDA91-BCF7-4741-94E4-E46F7D5ACB26}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECFE0CA-B7F7-4AE0-AE53-03C44FD40CC3}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -982,10 +1162,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2324</v>
+        <v>617</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -997,55 +1177,55 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>3918</v>
+        <v>617</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1054,491 +1234,489 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>2324</v>
+        <v>4064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>1593</v>
+        <v>5596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>3918</v>
+        <v>9660</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
+        <v>40</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24745</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7">
+        <v>45</v>
+      </c>
+      <c r="I8" s="7">
+        <v>41641</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="7">
+        <v>85</v>
+      </c>
+      <c r="N8" s="7">
+        <v>66386</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="7">
-        <v>39759</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="7">
-        <v>46</v>
-      </c>
-      <c r="I8" s="7">
-        <v>31425</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="7">
-        <v>92</v>
-      </c>
-      <c r="N8" s="7">
-        <v>71183</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31173</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7">
+        <v>53</v>
+      </c>
+      <c r="I9" s="7">
+        <v>48021</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="7">
+        <v>103</v>
+      </c>
+      <c r="N9" s="7">
+        <v>79194</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>653</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2206</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>474</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
       <c r="N10" s="7">
-        <v>2680</v>
+        <v>653</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
         <v>3</v>
       </c>
-      <c r="C11" s="7">
-        <v>49</v>
-      </c>
       <c r="D11" s="7">
-        <v>41965</v>
+        <v>1703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>31899</v>
+        <v>2246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>73863</v>
+        <v>3949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>94789</v>
+        <v>163</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>53309</v>
+        <v>2596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>148099</v>
+        <v>2759</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>3981</v>
+        <v>7730</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>758</v>
+        <v>19357</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>4739</v>
+        <v>27087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D14" s="7">
-        <v>3928</v>
+        <v>43385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>2603</v>
+        <v>78578</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="N14" s="7">
-        <v>6530</v>
+        <v>121963</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,365 +1725,365 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7">
+        <v>53633</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7">
         <v>119</v>
       </c>
-      <c r="D15" s="7">
-        <v>102698</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>78</v>
-      </c>
       <c r="I15" s="7">
-        <v>56670</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N15" s="7">
-        <v>159368</v>
+        <v>156410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>60306</v>
+        <v>430</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>42928</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>103234</v>
+        <v>430</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>10321</v>
+        <v>2828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>10321</v>
+        <v>3545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>2729</v>
+        <v>416</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>2260</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>4989</v>
+        <v>416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>63035</v>
+        <v>35316</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>55509</v>
+        <v>12873</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>118544</v>
+        <v>48189</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D20" s="7">
-        <v>55461</v>
+        <v>35305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I20" s="7">
-        <v>53541</v>
+        <v>49277</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="N20" s="7">
-        <v>109003</v>
+        <v>84581</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>881</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>881</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1914,249 +2092,247 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>2153</v>
+        <v>910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>2153</v>
+        <v>910</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>56342</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>55694</v>
+        <v>588</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>112036</v>
+        <v>588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>252641</v>
+        <v>566</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>182796</v>
+        <v>853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
-        <v>544</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>435436</v>
+        <v>1418</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="7">
         <v>16</v>
       </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
       <c r="D25" s="7">
-        <v>4862</v>
+        <v>11599</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>11079</v>
+        <v>10199</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N25" s="7">
-        <v>15940</v>
+        <v>21798</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7">
-        <v>8863</v>
+        <v>41319</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I26" s="7">
-        <v>7489</v>
+        <v>43821</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="N26" s="7">
-        <v>16352</v>
+        <v>85140</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,68 +2341,375 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>266365</v>
+        <v>53483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="I27" s="7">
-        <v>201364</v>
+        <v>56371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
-        <v>574</v>
+        <v>145</v>
       </c>
       <c r="N27" s="7">
-        <v>467729</v>
+        <v>109854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>138</v>
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1700</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>910</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M28" s="7">
+        <v>4</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2609</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3450</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="7">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5662</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M29" s="7">
+        <v>12</v>
+      </c>
+      <c r="N29" s="7">
+        <v>9112</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1861</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4232</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M30" s="7">
+        <v>8</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6093</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7">
+        <v>48</v>
+      </c>
+      <c r="D31" s="7">
+        <v>58708</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="7">
+        <v>50</v>
+      </c>
+      <c r="I31" s="7">
+        <v>48025</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M31" s="7">
+        <v>98</v>
+      </c>
+      <c r="N31" s="7">
+        <v>106734</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="7">
+        <v>210</v>
+      </c>
+      <c r="D32" s="7">
+        <v>144753</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" s="7">
+        <v>245</v>
+      </c>
+      <c r="I32" s="7">
+        <v>213317</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" s="7">
+        <v>455</v>
+      </c>
+      <c r="N32" s="7">
+        <v>358070</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="7">
+        <v>307</v>
+      </c>
+      <c r="I33" s="7">
+        <v>272147</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="7">
+        <v>577</v>
+      </c>
+      <c r="N33" s="7">
+        <v>482619</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
+  <mergeCells count="9">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
